--- a/src/assets/files/Bv-centre-responses_FEB13_wrkingcopy.xlsx
+++ b/src/assets/files/Bv-centre-responses_FEB13_wrkingcopy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1803">
   <si>
     <t>Timestamp</t>
   </si>
@@ -5125,6 +5125,469 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/vgKqokdJDX3c8tet6</t>
+  </si>
+  <si>
+    <t>Thiruvalaggadu</t>
+  </si>
+  <si>
+    <t>Manimekalai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvalaggadu , 
+Kuthalam tk,
+Mayiladuthurai dt,
+609810
+</t>
+  </si>
+  <si>
+    <t>Iyyanar kovil</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/DzAEFH47x7xQCYxm6</t>
+  </si>
+  <si>
+    <t>Keezhasatanathapuram</t>
+  </si>
+  <si>
+    <t>Keezhasatanathapuram, 
+Sirkali tk, 
+Mayiladuthurai dt, 
+609106</t>
+  </si>
+  <si>
+    <t>Anchaneyar temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/1H4W6q2jcua6x32x5</t>
+  </si>
+  <si>
+    <t>ICE HOUSE</t>
+  </si>
+  <si>
+    <t>ICE HOUSE BV CENTRE-1</t>
+  </si>
+  <si>
+    <t>KRITHIKA B</t>
+  </si>
+  <si>
+    <t>NO:11/6, SRI SAIKRUPA, VENKATACHALAM IIND LANE, TRIPLICANE, CHENNAI-5</t>
+  </si>
+  <si>
+    <t>Latha Giridharan</t>
+  </si>
+  <si>
+    <t>E.S.NAGARAJAN</t>
+  </si>
+  <si>
+    <t>Near Muthumariamman Temple, TRIPLICANE</t>
+  </si>
+  <si>
+    <t>Kavalambadi</t>
+  </si>
+  <si>
+    <t>Kavalambadi street, 
+Sirkali tk, 
+Mayiladuthurai dt, 
+609106</t>
+  </si>
+  <si>
+    <t>Rajagopala swamy temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/nUajS1GavJS8CShp8</t>
+  </si>
+  <si>
+    <t>Palayapalayam</t>
+  </si>
+  <si>
+    <t>Palayapalayam, 
+Sirkali tk, 
+Mayiladuthurai dt, 
+609101</t>
+  </si>
+  <si>
+    <t>Selva vinayagar temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/SNYpepHzG7hoLpsZ6</t>
+  </si>
+  <si>
+    <t>Vettagudy</t>
+  </si>
+  <si>
+    <t>Vettagudy, 
+Sirkali tk, 
+Mayiladuthurai dt, 
+609115</t>
+  </si>
+  <si>
+    <t>Kanniga parameshwari temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/xif8z3AELXdMeGjq7</t>
+  </si>
+  <si>
+    <t>Triplicane</t>
+  </si>
+  <si>
+    <t>Triplicane samithi</t>
+  </si>
+  <si>
+    <t>G chithra Anand , Rama sathya</t>
+  </si>
+  <si>
+    <t>Triolucane samithi, sivaraman street,, Triplicane, Chennai</t>
+  </si>
+  <si>
+    <t>G Chithra Anand</t>
+  </si>
+  <si>
+    <t>R Mahadevan</t>
+  </si>
+  <si>
+    <t>Opposite to Rainbow play school</t>
+  </si>
+  <si>
+    <t>Tried doing it</t>
+  </si>
+  <si>
+    <t>Kknagar</t>
+  </si>
+  <si>
+    <t>AVM Asta bv centre</t>
+  </si>
+  <si>
+    <t>Kamala Meenakshi and Bhuvaneswari</t>
+  </si>
+  <si>
+    <t>9884959436 and 9940035726</t>
+  </si>
+  <si>
+    <t>AVM Asta, pv Rajamannar Salai Kknagar Chennai 600 078</t>
+  </si>
+  <si>
+    <t>Bhuvaneswari L</t>
+  </si>
+  <si>
+    <t>Near sivan park</t>
+  </si>
+  <si>
+    <t>Melaperambalam</t>
+  </si>
+  <si>
+    <t>Melaperambalam,
+Tharangambadi tk,
+Nagapattinam dt,
+609107</t>
+  </si>
+  <si>
+    <t>Sivan temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/vHrbXhThxWJtt8YN6</t>
+  </si>
+  <si>
+    <t>Srinivasa Avenue</t>
+  </si>
+  <si>
+    <t>Sai Aravind Hall</t>
+  </si>
+  <si>
+    <t>N.Subasri, Kalpagam Subramanian, Indu Manohar</t>
+  </si>
+  <si>
+    <t>9962401264, 9841725243, 9566264104</t>
+  </si>
+  <si>
+    <t>Bhagirathi Street, R.A.Puram, Chennai-28</t>
+  </si>
+  <si>
+    <t>Indu Manohar</t>
+  </si>
+  <si>
+    <t>N.Karunanidhi</t>
+  </si>
+  <si>
+    <t>Near grinding Mill</t>
+  </si>
+  <si>
+    <t>SA Centre</t>
+  </si>
+  <si>
+    <t>Susila Akshayan, R.Bhuvana</t>
+  </si>
+  <si>
+    <t>9444486736, 9003128956</t>
+  </si>
+  <si>
+    <t>A7, Sowbhagiya Apartments, R.A.Puram, Chennai-28</t>
+  </si>
+  <si>
+    <t>Opposite Hari Shree Vidyalaya</t>
+  </si>
+  <si>
+    <t>Thirunagari</t>
+  </si>
+  <si>
+    <t>Eravakollai</t>
+  </si>
+  <si>
+    <t>Eravakollai,
+Sirkali tk,
+Mayiladuthurai dt,
+609101</t>
+  </si>
+  <si>
+    <t>Ayyanar temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/VB6JQ4HZtjpEwuSk8</t>
+  </si>
+  <si>
+    <t>Veppakulam</t>
+  </si>
+  <si>
+    <t>Veppakulam,
+Sirkali tk,
+Mayiladuthurai dt,
+609103</t>
+  </si>
+  <si>
+    <t>Government school</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/CNE23XZhKK9aiiwt9</t>
+  </si>
+  <si>
+    <t>Vembadi</t>
+  </si>
+  <si>
+    <t>Vembadi,
+Sirkali tk,
+Mayiladuthurai dt,
+609115</t>
+  </si>
+  <si>
+    <t>Kannika parameshwari temple</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/qwuX6vzSALw3MohS9</t>
+  </si>
+  <si>
+    <t>BG Kamakshipriya</t>
+  </si>
+  <si>
+    <t>Sakthidaran</t>
+  </si>
+  <si>
+    <t>Mandaiveli</t>
+  </si>
+  <si>
+    <t>Bg Kamakshipriya</t>
+  </si>
+  <si>
+    <t>U I colony Samithi</t>
+  </si>
+  <si>
+    <t>U I colony BV centre</t>
+  </si>
+  <si>
+    <t>Devaki Rajamani</t>
+  </si>
+  <si>
+    <t>#17, First Main Road, First floor, United India Colony, Kodambakkam, Chennai -600024.</t>
+  </si>
+  <si>
+    <t>Mrs. Devaki Rajamani</t>
+  </si>
+  <si>
+    <t>Sri. Venkatesan.</t>
+  </si>
+  <si>
+    <t>West Mambalam, T. Ngar</t>
+  </si>
+  <si>
+    <t>Railway colony BV centre</t>
+  </si>
+  <si>
+    <t>P M Sasikala Sekhar</t>
+  </si>
+  <si>
+    <t># 49, Railway colony, Kodabakkm, Chennai, 600024</t>
+  </si>
+  <si>
+    <t>U i colony</t>
+  </si>
+  <si>
+    <t>Mandaveli Chennai</t>
+  </si>
+  <si>
+    <t>Meenakshi Suryanarayan</t>
+  </si>
+  <si>
+    <t>Siddhashrama No.7 V Trust Cross Street Mandavelipakkam chennai 600028</t>
+  </si>
+  <si>
+    <t>Shivakumar</t>
+  </si>
+  <si>
+    <t>Saligramam</t>
+  </si>
+  <si>
+    <t>Saligramam samithi</t>
+  </si>
+  <si>
+    <t>Anuradha vivekanandhan</t>
+  </si>
+  <si>
+    <t>1, Valmiki street, Saligramam, Chennai 93</t>
+  </si>
+  <si>
+    <t>Chandra Ramamoorthy</t>
+  </si>
+  <si>
+    <t>M. Ramaswamy</t>
+  </si>
+  <si>
+    <t>Gandhinagar, Saligramam</t>
+  </si>
+  <si>
+    <t>9444386736, 9003128956</t>
+  </si>
+  <si>
+    <t>Flat No.A7, Sowbhagiya Apartments, Srinivasa Avenue, R.A.Puram, Chennai-28</t>
+  </si>
+  <si>
+    <t>Opposite Hari Shree Vidyalaya School</t>
+  </si>
+  <si>
+    <t>5,Dhanalakshmi Nagar, Thirupapuliyur, Cuddalore 2</t>
+  </si>
+  <si>
+    <t>V. Shanthi</t>
+  </si>
+  <si>
+    <t>Thirupapuliyur</t>
+  </si>
+  <si>
+    <t>C. S. Venkateswaran</t>
+  </si>
+  <si>
+    <t>vilandira samiththiram</t>
+  </si>
+  <si>
+    <t>latha narasimman</t>
+  </si>
+  <si>
+    <t>sri sathya sai samithi, layan clap school side, kambn nagar , sirkali- 609110</t>
+  </si>
+  <si>
+    <t>Lions Club Matriculation School</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Sathya+Sai+Seva+Samithi/@11.2532912,79.7312879,18.25z/data=!4m14!1m7!3m6!1s0x3a54df293ed27cfd:0x31fc4d6d8bf83c7f!2sLions+Club+Matriculation+School!8m2!3d11.2534659!4d79.733153!16s%2Fg%2F11qnhsy89k!3m5!1s0x3a54df001d50abaf:0x9071e6a56df9a59d!8m2!3d11.2527294!4d79.7328883!16s%2Fg%2F11w7w0pg73?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>sirkali town samithi</t>
+  </si>
+  <si>
+    <t>Town Samithi</t>
+  </si>
+  <si>
+    <t>Narasimmn</t>
+  </si>
+  <si>
+    <t>Ezhil malar school back side , Sambandar coloni, sirkali- 609110</t>
+  </si>
+  <si>
+    <t>Ezhilmalar School,</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ezhilmalar+Matriculation+School/@11.2353602,79.7400052,18.75z/data=!4m6!3m5!1s0x3a54e0a07ab58d73:0xf51b02638d0992fb!8m2!3d11.2356175!4d79.7406727!16s%2Fg%2F11f045qjc3?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Thittai</t>
+  </si>
+  <si>
+    <t>Selvi</t>
+  </si>
+  <si>
+    <t>94/1 , pilliyar kovil st, Thittai(PO) , Sirkali- 609111</t>
+  </si>
+  <si>
+    <t>middil school, Thittai</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Vinayagar+temple/@11.228904,79.753923,18.25z/data=!4m15!1m8!3m7!1s0x3a54e091151c896f:0xc9b86a7fd0c45d5!2sThittai,+Tamil+Nadu!3b1!8m2!3d11.2255064!4d79.754007!16s%2Fg%2F12hny6n8_!3m5!1s0x3a54e122612a4e2f:0x36a9f7c8bebae9d7!8m2!3d11.2281559!4d79.7548195!16s%2Fg%2F11flf0fj0m?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Kuthalam bhajana Mantali</t>
+  </si>
+  <si>
+    <t>Sai Shanmugapriya</t>
+  </si>
+  <si>
+    <t>33/22,A, thoppu st, Kuthalam-609801</t>
+  </si>
+  <si>
+    <t>Thenammai</t>
+  </si>
+  <si>
+    <t>Karthikeyan</t>
+  </si>
+  <si>
+    <t>bhajana mandali</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/search/33%2F22,A,+thoppu+st,+Kuthalam-609801/@11.0699764,79.5536546,15.75z?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>mayiladuthurai</t>
+  </si>
+  <si>
+    <t>Anbagam</t>
+  </si>
+  <si>
+    <t>Renuga</t>
+  </si>
+  <si>
+    <t>20A, Tharangambadi Rd, , Mayiladuthurai, Tamil Nadu 609001</t>
+  </si>
+  <si>
+    <t>karthikeyan</t>
+  </si>
+  <si>
+    <t>Dharmapuram college</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Anbagam/@11.0982616,79.6596761,17z/data=!3m1!4b1!4m6!3m5!1s0x3a5521381a00428f:0x48be24b6764fbe9c!8m2!3d11.0982616!4d79.662251!16s%2Fg%2F12cp18bjs?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Latha narasimman &amp; Chitragowrishankar</t>
+  </si>
+  <si>
+    <t>thittai rode , sirkali-609111</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Anbalayam+Special+School,+Sirkali/@11.2299081,79.6709311,13z/data=!4m10!1m2!2m1!1sAnbagam+thittai,+sirkali!3m6!1s0x3a54e1d5780ad88b:0xd4baeb3f05391b92!8m2!3d11.2299079!4d79.7430297!15sChhBbmJhZ2FtIHRoaXR0YWksIHNpcmthbGlaGSIXYW5iYWdhbSB0aGl0dGFpIHNpcmthbGmSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhORWxVTmpaM1JSQULgAQD6AQQIJBBJ!16s%2Fg%2F11lksln4kx?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>R. V</t>
+  </si>
+  <si>
+    <t>Cuddalore 1 Samithi</t>
+  </si>
+  <si>
+    <t>Parimala</t>
+  </si>
+  <si>
+    <t>17. RVS nagar, Anaikuppam, Cuddalore</t>
+  </si>
+  <si>
+    <t>SAI Sundari</t>
+  </si>
+  <si>
+    <t>Anna nagar</t>
   </si>
 </sst>
 </file>
@@ -5230,7 +5693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5276,13 +5739,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5293,12 +5767,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5888,11 +6356,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T309"/>
+  <dimension ref="A1:T340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5902,11 +6370,13 @@
     <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="78.21875" style="2" customWidth="1"/>
-    <col min="7" max="20" width="18.88671875" style="2" customWidth="1"/>
+    <col min="7" max="13" width="18.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="97.6640625" style="2" customWidth="1"/>
+    <col min="15" max="20" width="18.88671875" style="2" customWidth="1"/>
     <col min="21" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5950,7 +6420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="13.2">
       <c r="A2" s="3">
         <v>45643.600314710653</v>
       </c>
@@ -5984,7 +6454,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="13.2">
       <c r="A3" s="3">
         <v>45643.611102048613</v>
       </c>
@@ -6018,7 +6488,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="13.2">
       <c r="A4" s="3">
         <v>45653.628757604165</v>
       </c>
@@ -6102,7 +6572,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="13.2">
       <c r="A6" s="3">
         <v>45653.645937430556</v>
       </c>
@@ -6144,7 +6614,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="13.2">
       <c r="A7" s="3">
         <v>45653.648954074073</v>
       </c>
@@ -6186,7 +6656,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="13.2">
       <c r="A8" s="3">
         <v>45653.680393148148</v>
       </c>
@@ -6228,7 +6698,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="13.2">
       <c r="A9" s="3">
         <v>45653.680620636573</v>
       </c>
@@ -6267,7 +6737,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="13.2">
       <c r="A10" s="3">
         <v>45653.683157928244</v>
       </c>
@@ -6309,7 +6779,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="13.2">
       <c r="A11" s="3">
         <v>45653.687013969902</v>
       </c>
@@ -6348,7 +6818,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="13.2">
       <c r="A12" s="3">
         <v>45653.687644108795</v>
       </c>
@@ -6387,7 +6857,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="13.2">
       <c r="A13" s="3">
         <v>45653.698367210643</v>
       </c>
@@ -6423,7 +6893,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="13.2">
       <c r="A14" s="3">
         <v>45653.701222337964</v>
       </c>
@@ -6465,7 +6935,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="13.2">
       <c r="A15" s="3">
         <v>45653.705747164349</v>
       </c>
@@ -6501,7 +6971,7 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="13.2">
       <c r="A16" s="3">
         <v>45653.706036701391</v>
       </c>
@@ -6543,7 +7013,7 @@
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="13.2">
       <c r="A17" s="3">
         <v>45653.716073437499</v>
       </c>
@@ -6585,7 +7055,7 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="13.2">
       <c r="A18" s="3">
         <v>45653.723739374997</v>
       </c>
@@ -6627,7 +7097,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="13.2">
       <c r="A19" s="3">
         <v>45653.738157835644</v>
       </c>
@@ -6669,7 +7139,7 @@
       </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="13.2">
       <c r="A20" s="3">
         <v>45653.744383333338</v>
       </c>
@@ -6708,7 +7178,7 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="13.2">
       <c r="A21" s="3">
         <v>45653.754980902777</v>
       </c>
@@ -6750,7 +7220,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="13.2">
       <c r="A22" s="3">
         <v>45653.763478333334</v>
       </c>
@@ -6792,7 +7262,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="13.2">
       <c r="A23" s="3">
         <v>45653.763811956014</v>
       </c>
@@ -6831,7 +7301,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="13.2">
       <c r="A24" s="3">
         <v>45653.766413645833</v>
       </c>
@@ -6873,7 +7343,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="13.2">
       <c r="A25" s="3">
         <v>45653.770069155093</v>
       </c>
@@ -6915,7 +7385,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="13.2">
       <c r="A26" s="3">
         <v>45653.772568298613</v>
       </c>
@@ -6957,7 +7427,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" ht="13.2">
       <c r="A27" s="3">
         <v>45653.778531956021</v>
       </c>
@@ -6999,7 +7469,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="13.2">
       <c r="A28" s="3">
         <v>45653.784556851853</v>
       </c>
@@ -7041,7 +7511,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" ht="13.2">
       <c r="A29" s="3">
         <v>45653.791461597226</v>
       </c>
@@ -7083,7 +7553,7 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" ht="13.2">
       <c r="A30" s="3">
         <v>45653.793070555555</v>
       </c>
@@ -7125,7 +7595,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="13.2">
       <c r="A31" s="3">
         <v>45653.793908703708</v>
       </c>
@@ -7203,7 +7673,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="13.2">
       <c r="A33" s="3">
         <v>45653.794901238427</v>
       </c>
@@ -7242,7 +7712,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" ht="13.2">
       <c r="A34" s="3">
         <v>45653.797364756945</v>
       </c>
@@ -7407,7 +7877,7 @@
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" ht="13.2">
       <c r="A38" s="3">
         <v>45653.801143657409</v>
       </c>
@@ -7743,7 +8213,7 @@
       </c>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="13.2">
       <c r="A46" s="3">
         <v>45653.814673449073</v>
       </c>
@@ -7824,7 +8294,7 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="13.2">
       <c r="A48" s="3">
         <v>45653.816598252313</v>
       </c>
@@ -7863,7 +8333,7 @@
       </c>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" ht="13.2">
       <c r="A49" s="3">
         <v>45653.820111412038</v>
       </c>
@@ -7905,7 +8375,7 @@
       </c>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" ht="13.2">
       <c r="A50" s="3">
         <v>45653.821006863422</v>
       </c>
@@ -7944,7 +8414,7 @@
       </c>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" ht="13.2">
       <c r="A51" s="3">
         <v>45653.827588657412</v>
       </c>
@@ -7983,7 +8453,7 @@
       </c>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="13.2">
       <c r="A52" s="3">
         <v>45653.829250474533</v>
       </c>
@@ -8022,7 +8492,7 @@
       </c>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" ht="13.2">
       <c r="A53" s="3">
         <v>45653.83113121528</v>
       </c>
@@ -8061,7 +8531,7 @@
       </c>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" ht="13.2">
       <c r="A54" s="3">
         <v>45653.832513263886</v>
       </c>
@@ -8100,7 +8570,7 @@
       </c>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" ht="13.2">
       <c r="A55" s="3">
         <v>45653.833828414354</v>
       </c>
@@ -8139,7 +8609,7 @@
       </c>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" ht="13.2">
       <c r="A56" s="3">
         <v>45653.834978761573</v>
       </c>
@@ -8178,7 +8648,7 @@
       </c>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" ht="13.2">
       <c r="A57" s="3">
         <v>45653.842105706019</v>
       </c>
@@ -8220,7 +8690,7 @@
       </c>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" ht="13.2">
       <c r="A58" s="3">
         <v>45653.84235298611</v>
       </c>
@@ -8256,7 +8726,7 @@
       </c>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" ht="13.2">
       <c r="A59" s="3">
         <v>45653.844919328709</v>
       </c>
@@ -8298,7 +8768,7 @@
       </c>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" ht="13.2">
       <c r="A60" s="3">
         <v>45653.84511253472</v>
       </c>
@@ -8337,7 +8807,7 @@
       </c>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" ht="13.2">
       <c r="A61" s="3">
         <v>45653.850419629627</v>
       </c>
@@ -8379,7 +8849,7 @@
       </c>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" ht="13.2">
       <c r="A62" s="3">
         <v>45653.855127071758</v>
       </c>
@@ -8421,7 +8891,7 @@
       </c>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" ht="13.2">
       <c r="A63" s="3">
         <v>45653.877566354167</v>
       </c>
@@ -8463,7 +8933,7 @@
       </c>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" ht="13.2">
       <c r="A64" s="3">
         <v>45653.892486319441</v>
       </c>
@@ -8505,7 +8975,7 @@
       </c>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" ht="13.2">
       <c r="A65" s="3">
         <v>45653.893773634263</v>
       </c>
@@ -8544,7 +9014,7 @@
       </c>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" ht="13.2">
       <c r="A66" s="3">
         <v>45653.898586909723</v>
       </c>
@@ -8586,7 +9056,7 @@
       </c>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" ht="13.2">
       <c r="A67" s="3">
         <v>45653.90164674769</v>
       </c>
@@ -8628,7 +9098,7 @@
       </c>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" ht="13.2">
       <c r="A68" s="3">
         <v>45653.90333778935</v>
       </c>
@@ -8670,7 +9140,7 @@
       </c>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" ht="13.2">
       <c r="A69" s="3">
         <v>45653.90555019676</v>
       </c>
@@ -8712,7 +9182,7 @@
       </c>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" ht="13.2">
       <c r="A70" s="3">
         <v>45653.905693125002</v>
       </c>
@@ -8754,7 +9224,7 @@
       </c>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" ht="13.2">
       <c r="A71" s="3">
         <v>45653.907670868051</v>
       </c>
@@ -8796,7 +9266,7 @@
       </c>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" ht="13.2">
       <c r="A72" s="3">
         <v>45653.909665775464</v>
       </c>
@@ -8838,7 +9308,7 @@
       </c>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" ht="13.2">
       <c r="A73" s="3">
         <v>45653.91125907407</v>
       </c>
@@ -8880,7 +9350,7 @@
       </c>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" ht="13.2">
       <c r="A74" s="3">
         <v>45653.911669629626</v>
       </c>
@@ -8922,7 +9392,7 @@
       </c>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" ht="13.2">
       <c r="A75" s="3">
         <v>45653.911901192128</v>
       </c>
@@ -8964,7 +9434,7 @@
       </c>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="13.2">
       <c r="A76" s="3">
         <v>45653.913883472225</v>
       </c>
@@ -9006,7 +9476,7 @@
       </c>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" ht="13.2">
       <c r="A77" s="3">
         <v>45653.914081782408</v>
       </c>
@@ -9048,7 +9518,7 @@
       </c>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" ht="13.2">
       <c r="A78" s="3">
         <v>45653.915958912039</v>
       </c>
@@ -9090,7 +9560,7 @@
       </c>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" ht="13.2">
       <c r="A79" s="3">
         <v>45653.917269247686</v>
       </c>
@@ -9129,7 +9599,7 @@
       </c>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" ht="13.2">
       <c r="A80" s="3">
         <v>45653.919075162034</v>
       </c>
@@ -9171,7 +9641,7 @@
       </c>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" ht="13.2">
       <c r="A81" s="3">
         <v>45653.919838611109</v>
       </c>
@@ -9210,7 +9680,7 @@
       </c>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" ht="13.2">
       <c r="A82" s="3">
         <v>45653.921724120373</v>
       </c>
@@ -9252,7 +9722,7 @@
       </c>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" ht="13.2">
       <c r="A83" s="3">
         <v>45653.924385520833</v>
       </c>
@@ -9294,7 +9764,7 @@
       </c>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" ht="13.2">
       <c r="A84" s="3">
         <v>45653.928945081017</v>
       </c>
@@ -9336,7 +9806,7 @@
       </c>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" ht="13.2">
       <c r="A85" s="3">
         <v>45653.945773657411</v>
       </c>
@@ -9378,7 +9848,7 @@
       </c>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" ht="13.2">
       <c r="A86" s="3">
         <v>45653.950055856483</v>
       </c>
@@ -9420,7 +9890,7 @@
       </c>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" ht="13.2">
       <c r="A87" s="3">
         <v>45653.956047824075</v>
       </c>
@@ -9459,7 +9929,7 @@
       </c>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" ht="13.2">
       <c r="A88" s="3">
         <v>45653.968606388888</v>
       </c>
@@ -9501,7 +9971,7 @@
       </c>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" ht="13.2">
       <c r="A89" s="3">
         <v>45653.974331701393</v>
       </c>
@@ -9543,7 +10013,7 @@
       </c>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" ht="13.2">
       <c r="A90" s="3">
         <v>45653.981249884258</v>
       </c>
@@ -9585,7 +10055,7 @@
       </c>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" ht="13.2">
       <c r="A91" s="3">
         <v>45653.98199137731</v>
       </c>
@@ -9621,7 +10091,7 @@
       </c>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" ht="13.2">
       <c r="A92" s="3">
         <v>45654.19919644676</v>
       </c>
@@ -9663,7 +10133,7 @@
       </c>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" ht="13.2">
       <c r="A93" s="3">
         <v>45654.286333171302</v>
       </c>
@@ -9705,7 +10175,7 @@
       </c>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" ht="13.2">
       <c r="A94" s="3">
         <v>45654.466230046295</v>
       </c>
@@ -9747,7 +10217,7 @@
       </c>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" ht="13.2">
       <c r="A95" s="3">
         <v>45654.466831678241</v>
       </c>
@@ -9789,7 +10259,7 @@
       </c>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" ht="13.2">
       <c r="A96" s="3">
         <v>45654.533371967591</v>
       </c>
@@ -9828,7 +10298,7 @@
       </c>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" ht="13.2">
       <c r="A97" s="3">
         <v>45654.568480405098</v>
       </c>
@@ -9870,7 +10340,7 @@
       </c>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" ht="13.2">
       <c r="A98" s="3">
         <v>45654.569861203709</v>
       </c>
@@ -9912,7 +10382,7 @@
       </c>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" ht="13.2">
       <c r="A99" s="3">
         <v>45654.57173325232</v>
       </c>
@@ -9954,7 +10424,7 @@
       </c>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" ht="13.2">
       <c r="A100" s="3">
         <v>45654.5736875</v>
       </c>
@@ -9996,7 +10466,7 @@
       </c>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" ht="13.2">
       <c r="A101" s="3">
         <v>45654.57511046296</v>
       </c>
@@ -10038,7 +10508,7 @@
       </c>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" ht="13.2">
       <c r="A102" s="3">
         <v>45654.576352696764</v>
       </c>
@@ -10080,7 +10550,7 @@
       </c>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" ht="13.2">
       <c r="A103" s="3">
         <v>45654.587683460646</v>
       </c>
@@ -10122,7 +10592,7 @@
       </c>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" ht="13.2">
       <c r="A104" s="3">
         <v>45654.60626054398</v>
       </c>
@@ -10161,7 +10631,7 @@
       </c>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" ht="13.2">
       <c r="A105" s="3">
         <v>45654.61451511574</v>
       </c>
@@ -10203,7 +10673,7 @@
       </c>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" ht="13.2">
       <c r="A106" s="3">
         <v>45654.617804594905</v>
       </c>
@@ -10245,7 +10715,7 @@
       </c>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" ht="13.2">
       <c r="A107" s="3">
         <v>45654.630299837962</v>
       </c>
@@ -10287,7 +10757,7 @@
       </c>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" ht="13.2">
       <c r="A108" s="3">
         <v>45654.639622002316</v>
       </c>
@@ -10329,7 +10799,7 @@
       </c>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" ht="13.2">
       <c r="A109" s="3">
         <v>45654.646469953703</v>
       </c>
@@ -10371,7 +10841,7 @@
       </c>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" ht="13.2">
       <c r="A110" s="3">
         <v>45654.650328703705</v>
       </c>
@@ -10413,7 +10883,7 @@
       </c>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" ht="13.2">
       <c r="A111" s="3">
         <v>45654.651137939814</v>
       </c>
@@ -10455,7 +10925,7 @@
       </c>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" ht="13.2">
       <c r="A112" s="3">
         <v>45654.653766886579</v>
       </c>
@@ -10497,7 +10967,7 @@
       </c>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" ht="13.2">
       <c r="A113" s="3">
         <v>45654.657690277774</v>
       </c>
@@ -10539,7 +11009,7 @@
       </c>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" ht="13.2">
       <c r="A114" s="3">
         <v>45654.658910625003</v>
       </c>
@@ -10581,7 +11051,7 @@
       </c>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" ht="13.2">
       <c r="A115" s="3">
         <v>45654.666627824074</v>
       </c>
@@ -10623,7 +11093,7 @@
       </c>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" ht="13.2">
       <c r="A116" s="3">
         <v>45654.768001469907</v>
       </c>
@@ -10665,7 +11135,7 @@
       </c>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" ht="13.2">
       <c r="A117" s="3">
         <v>45654.9333084838</v>
       </c>
@@ -10704,7 +11174,7 @@
       </c>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" ht="13.2">
       <c r="A118" s="3">
         <v>45655.358371261573</v>
       </c>
@@ -10736,7 +11206,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" ht="13.2">
       <c r="A119" s="3">
         <v>45655.381909895834</v>
       </c>
@@ -10777,7 +11247,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" ht="13.2">
       <c r="A120" s="3">
         <v>45655.672117800925</v>
       </c>
@@ -10818,7 +11288,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" ht="13.2">
       <c r="A121" s="3">
         <v>45655.67801920139</v>
       </c>
@@ -10862,7 +11332,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" ht="13.2">
       <c r="A122" s="3">
         <v>45655.698659722228</v>
       </c>
@@ -10906,7 +11376,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" ht="13.2">
       <c r="A123" s="3">
         <v>45655.784192800929</v>
       </c>
@@ -11070,7 +11540,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" ht="13.2">
       <c r="A127" s="3">
         <v>45656.521280729168</v>
       </c>
@@ -11108,7 +11578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" ht="13.2">
       <c r="A128" s="3">
         <v>45656.525131215283</v>
       </c>
@@ -11149,7 +11619,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" ht="13.2">
       <c r="A129" s="3">
         <v>45656.528582627318</v>
       </c>
@@ -11190,7 +11660,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" ht="13.2">
       <c r="A130" s="3">
         <v>45656.531869710649</v>
       </c>
@@ -11231,7 +11701,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" ht="13.2">
       <c r="A131" s="3">
         <v>45656.533855543981</v>
       </c>
@@ -11272,7 +11742,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" ht="13.2">
       <c r="A132" s="3">
         <v>45656.535919131944</v>
       </c>
@@ -11313,7 +11783,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" ht="13.2">
       <c r="A133" s="3">
         <v>45656.538480659721</v>
       </c>
@@ -11354,7 +11824,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" ht="13.2">
       <c r="A134" s="3">
         <v>45656.541236296296</v>
       </c>
@@ -11395,7 +11865,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" ht="13.2">
       <c r="A135" s="3">
         <v>45656.595296932872</v>
       </c>
@@ -11430,7 +11900,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" ht="13.2">
       <c r="A136" s="3">
         <v>45656.636696967587</v>
       </c>
@@ -11471,7 +11941,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" ht="13.2">
       <c r="A137" s="3">
         <v>45657.313467164349</v>
       </c>
@@ -11512,7 +11982,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" ht="13.2">
       <c r="A138" s="3">
         <v>45657.321579594907</v>
       </c>
@@ -11553,7 +12023,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" ht="13.2">
       <c r="A139" s="3">
         <v>45657.323496724537</v>
       </c>
@@ -11594,7 +12064,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" ht="13.2">
       <c r="A140" s="3">
         <v>45657.386166724536</v>
       </c>
@@ -11638,7 +12108,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" ht="13.2">
       <c r="A141" s="3">
         <v>45657.411862905094</v>
       </c>
@@ -11682,7 +12152,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" ht="13.2">
       <c r="A142" s="3">
         <v>45657.432518483794</v>
       </c>
@@ -11723,7 +12193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" ht="13.2">
       <c r="A143" s="3">
         <v>45657.566788703705</v>
       </c>
@@ -12212,7 +12682,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" ht="13.2">
       <c r="A155" s="3">
         <v>45660.344955868059</v>
       </c>
@@ -12238,7 +12708,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" ht="13.2">
       <c r="A156" s="3">
         <v>45660.346437326385</v>
       </c>
@@ -12264,7 +12734,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" ht="13.2">
       <c r="A157" s="3">
         <v>45660.348622523146</v>
       </c>
@@ -12290,7 +12760,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" ht="13.2">
       <c r="A158" s="3">
         <v>45660.350211111116</v>
       </c>
@@ -12521,7 +12991,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" ht="13.2">
       <c r="A164" s="3">
         <v>45660.810483275462</v>
       </c>
@@ -12562,7 +13032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" ht="13.2">
       <c r="A165" s="3">
         <v>45661.515705405094</v>
       </c>
@@ -12603,7 +13073,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" ht="13.2">
       <c r="A166" s="3">
         <v>45661.52507231482</v>
       </c>
@@ -13207,7 +13677,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" ht="13.2">
       <c r="A180" s="3">
         <v>45665.77745706019</v>
       </c>
@@ -13289,7 +13759,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" ht="13.2">
       <c r="A182" s="3">
         <v>45680.568194571759</v>
       </c>
@@ -13330,7 +13800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" ht="13.2">
       <c r="A183" s="3">
         <v>45682.935544074076</v>
       </c>
@@ -13784,7 +14254,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" ht="13.2">
       <c r="A194" s="12"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -13806,7 +14276,7 @@
       <c r="S194" s="14"/>
       <c r="T194" s="14"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" ht="13.2">
       <c r="A195" s="3">
         <v>45686.728364641203</v>
       </c>
@@ -13850,7 +14320,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" ht="13.2">
       <c r="A196" s="3">
         <v>45688.83812399306</v>
       </c>
@@ -13891,7 +14361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" ht="13.2">
       <c r="A197" s="3">
         <v>45692.577522326392</v>
       </c>
@@ -13935,7 +14405,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" ht="13.2">
       <c r="A198" s="3">
         <v>45692.597596944441</v>
       </c>
@@ -13976,7 +14446,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" ht="13.2">
       <c r="A199" s="3">
         <v>45692.654334317129</v>
       </c>
@@ -14017,7 +14487,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" ht="13.2">
       <c r="A200" s="3">
         <v>45692.661496087967</v>
       </c>
@@ -14052,7 +14522,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" ht="13.2">
       <c r="A201" s="3">
         <v>45692.680830324069</v>
       </c>
@@ -14093,7 +14563,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" ht="13.2">
       <c r="A202" s="3">
         <v>45692.683268692126</v>
       </c>
@@ -14134,7 +14604,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" ht="13.2">
       <c r="A203" s="3">
         <v>45692.684125196756</v>
       </c>
@@ -14178,7 +14648,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" ht="13.2">
       <c r="A204" s="3">
         <v>45692.687418032408</v>
       </c>
@@ -14222,7 +14692,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" ht="13.2">
       <c r="A205" s="3">
         <v>45692.703967754627</v>
       </c>
@@ -14263,7 +14733,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" ht="13.2">
       <c r="A206" s="3">
         <v>45692.707577905094</v>
       </c>
@@ -14304,7 +14774,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" ht="13.2">
       <c r="A207" s="3">
         <v>45692.709486574073</v>
       </c>
@@ -14345,7 +14815,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" ht="13.2">
       <c r="A208" s="3">
         <v>45692.718387685185</v>
       </c>
@@ -14386,7 +14856,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" ht="13.2">
       <c r="A209" s="3">
         <v>45692.76346234954</v>
       </c>
@@ -14427,7 +14897,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" ht="13.2">
       <c r="A210" s="3">
         <v>45692.768483564811</v>
       </c>
@@ -14468,7 +14938,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" ht="13.2">
       <c r="A211" s="3">
         <v>45692.7932028125</v>
       </c>
@@ -14509,7 +14979,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" ht="13.2">
       <c r="A212" s="3">
         <v>45692.857988020834</v>
       </c>
@@ -14550,7 +15020,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" ht="13.2">
       <c r="A213" s="3">
         <v>45692.869734837965</v>
       </c>
@@ -14591,7 +15061,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" ht="13.2">
       <c r="A214" s="3">
         <v>45692.937627025458</v>
       </c>
@@ -14632,7 +15102,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" ht="13.2">
       <c r="A215" s="3">
         <v>45692.972435011572</v>
       </c>
@@ -14676,7 +15146,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" ht="13.2">
       <c r="A216" s="3">
         <v>45693.391168576389</v>
       </c>
@@ -14717,7 +15187,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" ht="13.2">
       <c r="A217" s="3">
         <v>45693.408662314818</v>
       </c>
@@ -14758,7 +15228,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" ht="13.2">
       <c r="A218" s="3">
         <v>45693.559653680553</v>
       </c>
@@ -14802,7 +15272,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" ht="13.2">
       <c r="A219" s="3">
         <v>45693.560202893517</v>
       </c>
@@ -14831,7 +15301,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" ht="13.2">
       <c r="A220" s="3">
         <v>45693.586121400462</v>
       </c>
@@ -14872,7 +15342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" ht="13.2">
       <c r="A221" s="3">
         <v>45693.608538194443</v>
       </c>
@@ -14913,7 +15383,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" ht="13.2">
       <c r="A222" s="3">
         <v>45693.831915625</v>
       </c>
@@ -14954,7 +15424,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" ht="13.2">
       <c r="A223" s="3">
         <v>45693.833564548608</v>
       </c>
@@ -14995,7 +15465,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" ht="13.2">
       <c r="A224" s="3">
         <v>45693.83834170139</v>
       </c>
@@ -15033,7 +15503,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" ht="13.2">
       <c r="A225" s="3">
         <v>45693.842949571757</v>
       </c>
@@ -15077,7 +15547,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" ht="13.2">
       <c r="A226" s="3">
         <v>45693.848602939819</v>
       </c>
@@ -15121,7 +15591,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" ht="13.2">
       <c r="A227" s="3">
         <v>45693.854353541668</v>
       </c>
@@ -15165,7 +15635,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" ht="13.2">
       <c r="A228" s="3">
         <v>45693.860926817128</v>
       </c>
@@ -15206,7 +15676,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" ht="13.2">
       <c r="A229" s="3">
         <v>45693.881666226851</v>
       </c>
@@ -15250,7 +15720,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" ht="13.2">
       <c r="A230" s="3">
         <v>45693.911660995371</v>
       </c>
@@ -15291,7 +15761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" ht="13.2">
       <c r="A231" s="3">
         <v>45693.915920694446</v>
       </c>
@@ -15332,7 +15802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" ht="13.2">
       <c r="A232" s="3">
         <v>45693.91729780093</v>
       </c>
@@ -15373,7 +15843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" ht="13.2">
       <c r="A233" s="3">
         <v>45693.919124189815</v>
       </c>
@@ -15414,7 +15884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" ht="13.2">
       <c r="A234" s="3">
         <v>45693.920447997683</v>
       </c>
@@ -15455,7 +15925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" ht="13.2">
       <c r="A235" s="3">
         <v>45693.921710347218</v>
       </c>
@@ -15496,7 +15966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" ht="13.2">
       <c r="A236" s="3">
         <v>45693.923744745371</v>
       </c>
@@ -15537,7 +16007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" ht="13.2">
       <c r="A237" s="3">
         <v>45693.925595636574</v>
       </c>
@@ -15578,7 +16048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" ht="13.2">
       <c r="A238" s="3">
         <v>45693.931296134258</v>
       </c>
@@ -15622,7 +16092,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" ht="13.2">
       <c r="A239" s="3">
         <v>45693.936039618056</v>
       </c>
@@ -15666,7 +16136,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" ht="13.2">
       <c r="A240" s="3">
         <v>45693.939020879625</v>
       </c>
@@ -15710,7 +16180,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" ht="13.2">
       <c r="A241" s="3">
         <v>45693.941989143517</v>
       </c>
@@ -15754,7 +16224,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" ht="13.2">
       <c r="A242" s="3">
         <v>45693.947683923616</v>
       </c>
@@ -15795,7 +16265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" ht="13.2">
       <c r="A243" s="3">
         <v>45693.952998298613</v>
       </c>
@@ -15839,7 +16309,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" ht="13.2">
       <c r="A244" s="3">
         <v>45693.957127789356</v>
       </c>
@@ -15883,7 +16353,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" ht="13.2">
       <c r="A245" s="3">
         <v>45693.959007256941</v>
       </c>
@@ -15924,7 +16394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" ht="13.2">
       <c r="A246" s="3">
         <v>45693.963059895832</v>
       </c>
@@ -15968,7 +16438,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" ht="13.2">
       <c r="A247" s="3">
         <v>45693.968861643516</v>
       </c>
@@ -16012,7 +16482,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" ht="13.2">
       <c r="A248" s="3">
         <v>45693.971199907406</v>
       </c>
@@ -16056,7 +16526,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" ht="13.2">
       <c r="A249" s="3">
         <v>45693.975749606485</v>
       </c>
@@ -16100,7 +16570,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" ht="13.2">
       <c r="A250" s="3">
         <v>45693.978380821762</v>
       </c>
@@ -16144,7 +16614,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" ht="13.2">
       <c r="A251" s="3">
         <v>45693.979348518522</v>
       </c>
@@ -16188,7 +16658,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" ht="13.2">
       <c r="A252" s="3">
         <v>45693.983098750003</v>
       </c>
@@ -16232,7 +16702,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" ht="13.2">
       <c r="A253" s="3">
         <v>45693.98624150463</v>
       </c>
@@ -16276,7 +16746,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" ht="13.2">
       <c r="A254" s="3">
         <v>45693.989604351853</v>
       </c>
@@ -16320,7 +16790,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" ht="13.2">
       <c r="A255" s="3">
         <v>45693.995351111109</v>
       </c>
@@ -16364,7 +16834,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" ht="13.2">
       <c r="A256" s="3">
         <v>45694.446132337966</v>
       </c>
@@ -16405,7 +16875,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" ht="13.2">
       <c r="A257" s="3">
         <v>45694.450425150462</v>
       </c>
@@ -16449,7 +16919,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" ht="13.2">
       <c r="A258" s="3">
         <v>45694.463891620369</v>
       </c>
@@ -16493,7 +16963,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" ht="13.2">
       <c r="A259" s="3">
         <v>45694.491564432872</v>
       </c>
@@ -16537,7 +17007,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" ht="13.2">
       <c r="A260" s="3">
         <v>45694.520323206016</v>
       </c>
@@ -16581,7 +17051,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" ht="13.2">
       <c r="A261" s="3">
         <v>45694.523540879629</v>
       </c>
@@ -16625,7 +17095,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" ht="13.2">
       <c r="A262" s="3">
         <v>45694.528946423612</v>
       </c>
@@ -16669,7 +17139,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" ht="13.2">
       <c r="A263" s="3">
         <v>45694.685728506942</v>
       </c>
@@ -16710,7 +17180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" ht="13.2">
       <c r="A264" s="3">
         <v>45694.711870914354</v>
       </c>
@@ -16754,7 +17224,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" ht="13.2">
       <c r="A265" s="3">
         <v>45694.876230775466</v>
       </c>
@@ -16798,7 +17268,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" ht="13.2">
       <c r="A266" s="3">
         <v>45694.884104780096</v>
       </c>
@@ -16842,7 +17312,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" ht="13.2">
       <c r="A267" s="3">
         <v>45694.887617326385</v>
       </c>
@@ -16886,7 +17356,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" ht="13.2">
       <c r="A268" s="3">
         <v>45694.893630624996</v>
       </c>
@@ -16930,7 +17400,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" ht="13.2">
       <c r="A269" s="3">
         <v>45694.899209907409</v>
       </c>
@@ -16974,7 +17444,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" ht="13.2">
       <c r="A270" s="3">
         <v>45694.903557291662</v>
       </c>
@@ -17018,7 +17488,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" ht="13.2">
       <c r="A271" s="3">
         <v>45694.913414062496</v>
       </c>
@@ -17062,7 +17532,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" ht="13.2">
       <c r="A272" s="3">
         <v>45694.916644791665</v>
       </c>
@@ -17106,7 +17576,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" ht="13.2">
       <c r="A273" s="3">
         <v>45694.918927118051</v>
       </c>
@@ -17150,7 +17620,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" ht="13.2">
       <c r="A274" s="3">
         <v>45694.923858888884</v>
       </c>
@@ -17191,7 +17661,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" ht="13.2">
       <c r="A275" s="3">
         <v>45694.928441481483</v>
       </c>
@@ -17235,7 +17705,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" ht="13.2">
       <c r="A276" s="3">
         <v>45694.933705810181</v>
       </c>
@@ -17279,7 +17749,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" ht="13.2">
       <c r="A277" s="3">
         <v>45694.956222488428</v>
       </c>
@@ -17314,7 +17784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" ht="13.2">
       <c r="A278" s="3">
         <v>45695.729889629627</v>
       </c>
@@ -17355,7 +17825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" ht="13.2">
       <c r="A279" s="3">
         <v>45696.782594201388</v>
       </c>
@@ -17399,7 +17869,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" ht="13.2">
       <c r="A280" s="3">
         <v>45696.794535127316</v>
       </c>
@@ -17443,7 +17913,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" ht="13.2">
       <c r="A281" s="3">
         <v>45697.336329282407</v>
       </c>
@@ -17487,7 +17957,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" ht="13.2">
       <c r="A282" s="3">
         <v>45698.540192488421</v>
       </c>
@@ -17531,7 +18001,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" ht="13.2">
       <c r="A283" s="3">
         <v>45698.708652384259</v>
       </c>
@@ -17575,7 +18045,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" ht="13.2">
       <c r="A284" s="3">
         <v>45698.717794722223</v>
       </c>
@@ -17616,7 +18086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" ht="13.2">
       <c r="A285" s="3">
         <v>45698.732101585643</v>
       </c>
@@ -17657,7 +18127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" ht="13.2">
       <c r="A286" s="3">
         <v>45698.735173356486</v>
       </c>
@@ -17698,7 +18168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" ht="13.2">
       <c r="A287" s="3">
         <v>45698.738567337961</v>
       </c>
@@ -17736,7 +18206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" ht="13.2">
       <c r="A288" s="3">
         <v>45698.789331168984</v>
       </c>
@@ -17780,7 +18250,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" ht="13.2">
       <c r="A289" s="3">
         <v>45698.810939988427</v>
       </c>
@@ -17821,7 +18291,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" ht="13.2">
       <c r="A290" s="3">
         <v>45698.843208321763</v>
       </c>
@@ -17862,7 +18332,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" ht="13.2">
       <c r="A291" s="3">
         <v>45699.406936203704</v>
       </c>
@@ -17906,7 +18376,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" ht="13.2">
       <c r="A292" s="3">
         <v>45699.506009490739</v>
       </c>
@@ -17947,7 +18417,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" ht="13.2">
       <c r="A293" s="3">
         <v>45699.573548726854</v>
       </c>
@@ -17991,7 +18461,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" ht="13.2">
       <c r="A294" s="3">
         <v>45699.589746782411</v>
       </c>
@@ -18035,7 +18505,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" ht="13.2">
       <c r="A295" s="3">
         <v>45699.779578784721</v>
       </c>
@@ -18076,7 +18546,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" ht="13.2">
       <c r="A296" s="3">
         <v>45699.786950231486</v>
       </c>
@@ -18117,7 +18587,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" ht="13.2">
       <c r="A297" s="3">
         <v>45699.823601481483</v>
       </c>
@@ -18161,7 +18631,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" ht="13.2">
       <c r="A298" s="3">
         <v>45699.934367731483</v>
       </c>
@@ -18202,7 +18672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" ht="13.2">
       <c r="A299" s="3">
         <v>45700.423981678236</v>
       </c>
@@ -18243,7 +18713,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" ht="13.2">
       <c r="A300" s="3">
         <v>45700.493827754632</v>
       </c>
@@ -18287,7 +18757,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" ht="13.2">
       <c r="A301" s="3">
         <v>45700.498228275464</v>
       </c>
@@ -18331,7 +18801,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" ht="13.2">
       <c r="A302" s="3">
         <v>45700.505130868056</v>
       </c>
@@ -18375,7 +18845,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" ht="13.2">
       <c r="A303" s="3">
         <v>45700.644909525465</v>
       </c>
@@ -18419,7 +18889,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" ht="13.2">
       <c r="A304" s="3">
         <v>45700.657196840279</v>
       </c>
@@ -18463,7 +18933,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:20" ht="13.2">
       <c r="A305" s="3">
         <v>45701.42418825232</v>
       </c>
@@ -18507,7 +18977,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:20" ht="13.2">
       <c r="A306" s="3">
         <v>45701.427366574077</v>
       </c>
@@ -18551,7 +19021,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:20" ht="13.2">
       <c r="A307" s="3">
         <v>45701.433306122686</v>
       </c>
@@ -18595,7 +19065,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:20" ht="13.2">
       <c r="A308" s="3">
         <v>45701.436979583334</v>
       </c>
@@ -18639,7 +19109,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:20" ht="13.2">
       <c r="A309" s="3">
         <v>45701.445223263887</v>
       </c>
@@ -18682,6 +19152,1322 @@
       <c r="N309" s="16" t="s">
         <v>1657</v>
       </c>
+    </row>
+    <row r="310" spans="1:20" ht="13.2">
+      <c r="A310" s="17"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
+      <c r="J310" s="18"/>
+      <c r="K310" s="18"/>
+      <c r="L310" s="18"/>
+      <c r="M310" s="18"/>
+      <c r="N310" s="19"/>
+      <c r="O310" s="20"/>
+      <c r="P310" s="20"/>
+      <c r="Q310" s="20"/>
+      <c r="R310" s="20"/>
+      <c r="S310" s="20"/>
+      <c r="T310" s="20"/>
+    </row>
+    <row r="311" spans="1:20" ht="13.2">
+      <c r="A311" s="3">
+        <v>45701.518819444442</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E311" s="4">
+        <v>9080735237</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G311" s="4">
+        <v>609810</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I311" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K311" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L311" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="M311" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N311" s="16" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="13.2">
+      <c r="A312" s="3">
+        <v>45701.522314814814</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E312" s="4">
+        <v>9384225807</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G312" s="4">
+        <v>609106</v>
+      </c>
+      <c r="H312" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I312" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K312" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L312" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M312" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N312" s="16" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="13.2">
+      <c r="A313" s="3">
+        <v>45701.52857638889</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E313" s="4">
+        <v>9840604927</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G313" s="4">
+        <v>600005</v>
+      </c>
+      <c r="H313" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I313" s="4">
+        <v>9840463979</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K313" s="4">
+        <v>9840553056</v>
+      </c>
+      <c r="L313" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M313" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N313" s="16"/>
+    </row>
+    <row r="314" spans="1:20" ht="13.2">
+      <c r="A314" s="3">
+        <v>45701.528749999998</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E314" s="4">
+        <v>9080735237</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G314" s="4">
+        <v>609106</v>
+      </c>
+      <c r="H314" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I314" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K314" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L314" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M314" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N314" s="16" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" ht="13.2">
+      <c r="A315" s="3">
+        <v>45701.53429398148</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E315" s="4">
+        <v>9384225807</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G315" s="4">
+        <v>609101</v>
+      </c>
+      <c r="H315" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I315" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J315" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K315" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L315" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M315" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N315" s="16" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" ht="13.2">
+      <c r="A316" s="3">
+        <v>45701.537106481483</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E316" s="4">
+        <v>9080735237</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G316" s="4">
+        <v>609115</v>
+      </c>
+      <c r="H316" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I316" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K316" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L316" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="M316" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N316" s="16" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" ht="13.2">
+      <c r="A317" s="3">
+        <v>45701.540671296294</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E317" s="4">
+        <v>9884063153</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G317" s="4">
+        <v>600005</v>
+      </c>
+      <c r="H317" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I317" s="4">
+        <v>9884063153</v>
+      </c>
+      <c r="J317" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K317" s="4">
+        <v>9789773705</v>
+      </c>
+      <c r="L317" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M317" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N317" s="16" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" ht="13.2">
+      <c r="A318" s="3">
+        <v>45701.555</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G318" s="4">
+        <v>600078</v>
+      </c>
+      <c r="H318" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I318" s="4">
+        <v>9940035726</v>
+      </c>
+      <c r="J318" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K318" s="4">
+        <v>9360524829</v>
+      </c>
+      <c r="L318" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M318" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N318" s="16"/>
+    </row>
+    <row r="319" spans="1:20" ht="13.2">
+      <c r="A319" s="3">
+        <v>45701.567569444444</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E319" s="4">
+        <v>9384225807</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G319" s="4">
+        <v>609107</v>
+      </c>
+      <c r="H319" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I319" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K319" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L319" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M319" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N319" s="16" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" ht="13.2">
+      <c r="A320" s="3">
+        <v>45701.570763888885</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G320" s="4">
+        <v>600028</v>
+      </c>
+      <c r="H320" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I320" s="4">
+        <v>9566264104</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K320" s="4">
+        <v>9790931459</v>
+      </c>
+      <c r="L320" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M320" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N320" s="16"/>
+    </row>
+    <row r="321" spans="1:14" ht="13.2">
+      <c r="A321" s="3">
+        <v>45701.573611111111</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G321" s="4">
+        <v>600028</v>
+      </c>
+      <c r="H321" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I321" s="4">
+        <v>9566264104</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K321" s="4">
+        <v>9790931459</v>
+      </c>
+      <c r="L321" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M321" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N321" s="16"/>
+    </row>
+    <row r="322" spans="1:14" ht="13.2">
+      <c r="A322" s="3">
+        <v>45701.579305555555</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E322" s="4">
+        <v>9080735237</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G322" s="4">
+        <v>609101</v>
+      </c>
+      <c r="H322" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I322" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K322" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L322" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M322" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N322" s="16" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="13.2">
+      <c r="A323" s="3">
+        <v>45701.60365740741</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E323" s="4">
+        <v>9384225807</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G323" s="4">
+        <v>609103</v>
+      </c>
+      <c r="H323" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I323" s="4">
+        <v>9789542391</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K323" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L323" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M323" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N323" s="16" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="13.2">
+      <c r="A324" s="3">
+        <v>45701.609826388885</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E324" s="4">
+        <v>9080735237</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G324" s="4">
+        <v>609115</v>
+      </c>
+      <c r="H324" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I324" s="4">
+        <v>97895423</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K324" s="4">
+        <v>8610603738</v>
+      </c>
+      <c r="L324" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="M324" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N324" s="16" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="13.2">
+      <c r="A325" s="3">
+        <v>45701.626585648148</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E325" s="4">
+        <v>8903536903</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G325" s="4">
+        <v>600004</v>
+      </c>
+      <c r="H325" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I325" s="4">
+        <v>8903536903</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K325" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L325" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="M325" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N325" s="16"/>
+    </row>
+    <row r="326" spans="1:14" ht="13.2">
+      <c r="A326" s="3">
+        <v>45701.628900462965</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E326" s="4">
+        <v>8903536903</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G326" s="4">
+        <v>600004</v>
+      </c>
+      <c r="H326" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I326" s="4">
+        <v>8903536903</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K326" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L326" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="M326" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N326" s="16"/>
+    </row>
+    <row r="327" spans="1:14" ht="13.2">
+      <c r="A327" s="3">
+        <v>45701.742743055554</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E327" s="4">
+        <v>7358556075</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G327" s="4">
+        <v>600033</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I327" s="4">
+        <v>7358556075</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K327" s="4">
+        <v>9444383613</v>
+      </c>
+      <c r="L327" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="M327" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N327" s="16"/>
+    </row>
+    <row r="328" spans="1:14" ht="13.2">
+      <c r="A328" s="3">
+        <v>45701.747303240743</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E328" s="4">
+        <v>9841543106</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G328" s="4">
+        <v>600024</v>
+      </c>
+      <c r="H328" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I328" s="4">
+        <v>7358556075</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K328" s="4">
+        <v>9444383613</v>
+      </c>
+      <c r="L328" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M328" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N328" s="16"/>
+    </row>
+    <row r="329" spans="1:14" ht="13.2">
+      <c r="A329" s="3">
+        <v>45701.765636574077</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E329" s="4">
+        <v>9283426461</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G329" s="4">
+        <v>600028</v>
+      </c>
+      <c r="H329" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I329" s="4">
+        <v>9840742285</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K329" s="4">
+        <v>9884341530</v>
+      </c>
+      <c r="L329" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M329" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N329" s="16"/>
+    </row>
+    <row r="330" spans="1:14" ht="13.2">
+      <c r="A330" s="3">
+        <v>45701.79414351852</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E330" s="4">
+        <v>9884876730</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G330" s="4">
+        <v>600093</v>
+      </c>
+      <c r="H330" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I330" s="4">
+        <v>9444784125</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K330" s="4">
+        <v>9710471776</v>
+      </c>
+      <c r="L330" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M330" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N330" s="16" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="13.2">
+      <c r="A331" s="3">
+        <v>45701.842094907406</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G331" s="4">
+        <v>600028</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I331" s="4">
+        <v>9566264104</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K331" s="4">
+        <v>9790931459</v>
+      </c>
+      <c r="L331" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="M331" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N331" s="16"/>
+    </row>
+    <row r="332" spans="1:14" ht="13.2">
+      <c r="A332" s="3">
+        <v>45701.9453587963</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E332" s="4">
+        <v>9894386054</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G332" s="4">
+        <v>607002</v>
+      </c>
+      <c r="H332" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I332" s="4">
+        <v>9894386054</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K332" s="4">
+        <v>8012530903</v>
+      </c>
+      <c r="L332" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M332" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N332" s="16"/>
+    </row>
+    <row r="333" spans="1:14" ht="13.2">
+      <c r="A333" s="3">
+        <v>45701.948460648149</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E333" s="4">
+        <v>9443323620</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G333" s="4">
+        <v>607002</v>
+      </c>
+      <c r="H333" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I333" s="4">
+        <v>9597021814</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K333" s="4">
+        <v>8012530903</v>
+      </c>
+      <c r="L333" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M333" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N333" s="16"/>
+    </row>
+    <row r="334" spans="1:14" ht="13.2">
+      <c r="A334" s="3">
+        <v>45702.437407407408</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E334" s="4">
+        <v>9600993134</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G334" s="4">
+        <v>609110</v>
+      </c>
+      <c r="H334" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I334" s="4">
+        <v>9486156469</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="K334" s="4">
+        <v>9382161001</v>
+      </c>
+      <c r="L334" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="M334" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N334" s="16" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="13.2">
+      <c r="A335" s="3">
+        <v>45702.441180555557</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E335" s="4">
+        <v>8939034545</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G335" s="4">
+        <v>609110</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I335" s="4">
+        <v>9486156469</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="K335" s="4">
+        <v>9382161001</v>
+      </c>
+      <c r="L335" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M335" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N335" s="16" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="13.2">
+      <c r="A336" s="3">
+        <v>45702.446875000001</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E336" s="4">
+        <v>9047262764</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G336" s="4">
+        <v>609110</v>
+      </c>
+      <c r="H336" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I336" s="4">
+        <v>9486156469</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="K336" s="4">
+        <v>9382161001</v>
+      </c>
+      <c r="L336" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="M336" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N336" s="16" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="13.2">
+      <c r="A337" s="3">
+        <v>45702.463518518518</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E337" s="4">
+        <v>9698113486</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G337" s="4">
+        <v>609801</v>
+      </c>
+      <c r="H337" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I337" s="4">
+        <v>8248457513</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K337" s="4">
+        <v>9943668331</v>
+      </c>
+      <c r="L337" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="M337" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N337" s="16" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="13.2">
+      <c r="A338" s="3">
+        <v>45702.467222222222</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E338" s="4">
+        <v>9688999138</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G338" s="4">
+        <v>609001</v>
+      </c>
+      <c r="H338" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I338" s="4">
+        <v>8248457513</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K338" s="4">
+        <v>9943668331</v>
+      </c>
+      <c r="L338" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="M338" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N338" s="16" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="13.2">
+      <c r="A339" s="3">
+        <v>45702.475289351853</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E339" s="4">
+        <v>8523973669</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G339" s="4">
+        <v>609110</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I339" s="4">
+        <v>9486156469</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="K339" s="4">
+        <v>9489529701</v>
+      </c>
+      <c r="L339" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M339" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N339" s="16" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="13.2">
+      <c r="A340" s="3">
+        <v>45703.694884259261</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E340" s="4">
+        <v>8870114666</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G340" s="4">
+        <v>607001</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I340" s="4">
+        <v>9488331975</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K340" s="4">
+        <v>9486515778</v>
+      </c>
+      <c r="L340" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M340" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N340" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18752,10 +20538,26 @@
     <hyperlink ref="N307" r:id="rId65"/>
     <hyperlink ref="N308" r:id="rId66"/>
     <hyperlink ref="N309" r:id="rId67"/>
+    <hyperlink ref="N311" r:id="rId68"/>
+    <hyperlink ref="N312" r:id="rId69"/>
+    <hyperlink ref="N314" r:id="rId70"/>
+    <hyperlink ref="N315" r:id="rId71"/>
+    <hyperlink ref="N316" r:id="rId72"/>
+    <hyperlink ref="N319" r:id="rId73"/>
+    <hyperlink ref="N322" r:id="rId74"/>
+    <hyperlink ref="N323" r:id="rId75"/>
+    <hyperlink ref="N324" r:id="rId76"/>
+    <hyperlink ref="N334" r:id="rId77" display="https://www.google.co.in/maps/place/Sathya+Sai+Seva+Samithi/@11.2532912,79.7312879,18.25z/data=!4m14!1m7!3m6!1s0x3a54df293ed27cfd:0x31fc4d6d8bf83c7f!2sLions+Club+Matriculation+School!8m2!3d11.2534659!4d79.733153!16s%2Fg%2F11qnhsy89k!3m5!1s0x3a54df001d50abaf:0x9071e6a56df9a59d!8m2!3d11.2527294!4d79.7328883!16s%2Fg%2F11w7w0pg73?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D"/>
+    <hyperlink ref="N335" r:id="rId78"/>
+    <hyperlink ref="N336" r:id="rId79" display="https://www.google.co.in/maps/place/Vinayagar+temple/@11.228904,79.753923,18.25z/data=!4m15!1m8!3m7!1s0x3a54e091151c896f:0xc9b86a7fd0c45d5!2sThittai,+Tamil+Nadu!3b1!8m2!3d11.2255064!4d79.754007!16s%2Fg%2F12hny6n8_!3m5!1s0x3a54e122612a4e2f:0x36a9f7c8bebae9d7!8m2!3d11.2281559!4d79.7548195!16s%2Fg%2F11flf0fj0m?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D"/>
+    <hyperlink ref="N337" r:id="rId80"/>
+    <hyperlink ref="N338" r:id="rId81"/>
+    <hyperlink ref="N339" r:id="rId82" display="https://www.google.co.in/maps/place/Anbalayam+Special+School,+Sirkali/@11.2299081,79.6709311,13z/data=!4m10!1m2!2m1!1sAnbagam+thittai,+sirkali!3m6!1s0x3a54e1d5780ad88b:0xd4baeb3f05391b92!8m2!3d11.2299079!4d79.7430297!15sChhBbmJhZ2FtIHRoaXR0YWksIHNpcmthbGlaGSIXYW5iYWdhbSB0aGl0dGFpIHNpcmthbGmSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhORWxVTmpaM1JSQULgAQD6AQQIJBBJ!16s%2Fg%2F11lksln4kx?entry=ttu&amp;g_ep=EgoyMDI1MDIxMS4wIKXMDSoASAFQAw%3D%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId83"/>
   <tableParts count="1">
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>